--- a/code/exchangerate_simple.xlsx
+++ b/code/exchangerate_simple.xlsx
@@ -434,10 +434,10 @@
     <t>CHI</t>
   </si>
   <si>
-    <t>ChileCHL</t>
-  </si>
-  <si>
-    <t>0.00104896937508435</t>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>CHL</t>
   </si>
   <si>
     <t>China</t>
@@ -8327,186 +8327,188 @@
         <v>139</v>
       </c>
       <c r="C39" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" t="s">
         <v>65</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>66</v>
       </c>
-      <c r="E39" t="s">
-        <v>140</v>
-      </c>
       <c r="F39" t="n">
+        <v>0.00104896937508435</v>
+      </c>
+      <c r="G39" t="n">
         <v>0.00105013600777515</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>0.00105763578898984</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>0.00162178598526937</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>0.00230743263477695</v>
       </c>
-      <c r="J39" t="n">
+      <c r="K39" t="n">
         <v>0.00315665784211544</v>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>0.00385113756716292</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>0.00506826870035749</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>0.00687646591103729</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>0.008617581747120809</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>0.0112775040919884</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>0.0122086435743848</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>0.0208352250595966</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>0.0716419084529154</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>0.592826261289235</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>4.91041666666667</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>13.0541666666667</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>21.5358333333333</v>
       </c>
-      <c r="W39" t="n">
+      <c r="X39" t="n">
         <v>31.6558333333333</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
         <v>37.24583333333329</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>39</v>
       </c>
       <c r="Z39" t="n">
         <v>39</v>
       </c>
       <c r="AA39" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB39" t="n">
         <v>50.9083333333333</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AC39" t="n">
         <v>78.7883333333333</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AD39" t="n">
         <v>98.47750000000001</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AE39" t="n">
         <v>160.859999999917</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AF39" t="n">
         <v>192.929999999667</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AG39" t="n">
         <v>219.406666666667</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AH39" t="n">
         <v>245.011666666667</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AI39" t="n">
         <v>266.954166666667</v>
       </c>
-      <c r="AI39" t="n">
+      <c r="AJ39" t="n">
         <v>304.903333333333</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AK39" t="n">
         <v>349.215833333333</v>
       </c>
-      <c r="AK39" t="n">
+      <c r="AL39" t="n">
         <v>362.575833333333</v>
       </c>
-      <c r="AL39" t="n">
+      <c r="AM39" t="n">
         <v>404.165833333333</v>
       </c>
-      <c r="AM39" t="n">
+      <c r="AN39" t="n">
         <v>420.176666666667</v>
       </c>
-      <c r="AN39" t="n">
+      <c r="AO39" t="n">
         <v>396.773333333333</v>
       </c>
-      <c r="AO39" t="n">
+      <c r="AP39" t="n">
         <v>412.266666666667</v>
       </c>
-      <c r="AP39" t="n">
+      <c r="AQ39" t="n">
         <v>419.295</v>
       </c>
-      <c r="AQ39" t="n">
+      <c r="AR39" t="n">
         <v>460.2875</v>
       </c>
-      <c r="AR39" t="n">
+      <c r="AS39" t="n">
         <v>508.776666666667</v>
       </c>
-      <c r="AS39" t="n">
+      <c r="AT39" t="n">
         <v>539.5875</v>
       </c>
-      <c r="AT39" t="n">
+      <c r="AU39" t="n">
         <v>634.9383333333329</v>
       </c>
-      <c r="AU39" t="n">
+      <c r="AV39" t="n">
         <v>688.9366666666671</v>
       </c>
-      <c r="AV39" t="n">
+      <c r="AW39" t="n">
         <v>691.3975</v>
       </c>
-      <c r="AW39" t="n">
+      <c r="AX39" t="n">
         <v>609.529166666667</v>
       </c>
-      <c r="AX39" t="n">
+      <c r="AY39" t="n">
         <v>559.7675</v>
       </c>
-      <c r="AY39" t="n">
+      <c r="AZ39" t="n">
         <v>530.275</v>
       </c>
-      <c r="AZ39" t="n">
+      <c r="BA39" t="n">
         <v>522.464166666667</v>
       </c>
-      <c r="BA39" t="n">
+      <c r="BB39" t="n">
         <v>522.461035833333</v>
       </c>
-      <c r="BB39" t="n">
+      <c r="BC39" t="n">
         <v>560.85989484127</v>
       </c>
-      <c r="BC39" t="n">
+      <c r="BD39" t="n">
         <v>510.249166666667</v>
       </c>
-      <c r="BD39" t="n">
+      <c r="BE39" t="n">
         <v>483.6675</v>
       </c>
-      <c r="BE39" t="n">
+      <c r="BF39" t="n">
         <v>486.471303391053</v>
       </c>
-      <c r="BF39" t="n">
+      <c r="BG39" t="n">
         <v>495.272877645503</v>
       </c>
-      <c r="BG39" t="n">
+      <c r="BH39" t="n">
         <v>570.3482161274401</v>
       </c>
-      <c r="BH39" t="n">
+      <c r="BI39" t="n">
         <v>654.124084254196</v>
       </c>
-      <c r="BI39" t="n">
+      <c r="BJ39" t="n">
         <v>676.9577360446569</v>
       </c>
-      <c r="BJ39" t="n">
+      <c r="BK39" t="n">
         <v>648.8337925982611</v>
       </c>
-      <c r="BK39" t="s"/>
       <c r="BL39" t="s"/>
     </row>
     <row r="40" spans="1:64">

--- a/code/exchangerate_simple.xlsx
+++ b/code/exchangerate_simple.xlsx
@@ -1121,7 +1121,9 @@
       <c r="E3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s"/>
+      <c r="F3" t="n">
+        <v>9.105</v>
+      </c>
       <c r="G3" t="n">
         <v>9.105</v>
       </c>
@@ -3018,7 +3020,9 @@
       <c r="AD22" t="n">
         <v>21.7315472222222</v>
       </c>
-      <c r="AE22" t="s"/>
+      <c r="AE22" t="n">
+        <v>21.7315472222222</v>
+      </c>
       <c r="AF22" t="s"/>
     </row>
     <row r="23" spans="1:32">
@@ -3037,10 +3041,18 @@
       <c r="E23" t="s">
         <v>34</v>
       </c>
-      <c r="F23" t="s"/>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s"/>
+      <c r="F23" t="n">
+        <v>1.2628</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.2628</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.2628</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1.2628</v>
+      </c>
       <c r="J23" t="n">
         <v>1.2628</v>
       </c>
@@ -3296,7 +3308,9 @@
       <c r="AD25" t="n">
         <v>8959.716125000001</v>
       </c>
-      <c r="AE25" t="s"/>
+      <c r="AE25" t="n">
+        <v>8959.716125000001</v>
+      </c>
       <c r="AF25" t="s"/>
     </row>
     <row r="26" spans="1:32">
@@ -3390,7 +3404,9 @@
       <c r="AD26" t="n">
         <v>43.88463359469051</v>
       </c>
-      <c r="AE26" t="s"/>
+      <c r="AE26" t="n">
+        <v>43.88463359469051</v>
+      </c>
       <c r="AF26" t="s"/>
     </row>
     <row r="27" spans="1:32">
@@ -3772,7 +3788,9 @@
       <c r="AD30" t="n">
         <v>63.33581836989239</v>
       </c>
-      <c r="AE30" t="s"/>
+      <c r="AE30" t="n">
+        <v>63.33581836989239</v>
+      </c>
       <c r="AF30" t="s"/>
     </row>
     <row r="31" spans="1:32">
@@ -4112,21 +4130,23 @@
       <c r="P34" t="n">
         <v>2002.37270286683</v>
       </c>
-      <c r="Q34" t="s"/>
+      <c r="Q34" t="n">
+        <v>1453.41666666667</v>
+      </c>
       <c r="R34" t="n">
-        <v>1453.41666666667</v>
+        <v>1472</v>
       </c>
       <c r="S34" t="n">
-        <v>1472</v>
+        <v>1467.41666666667</v>
       </c>
       <c r="T34" t="n">
-        <v>1467.41666666667</v>
+        <v>1254.56721858704</v>
       </c>
       <c r="U34" t="n">
-        <v>1254.56721858704</v>
+        <v>1193.08333333333</v>
       </c>
       <c r="V34" t="n">
-        <v>1193.08333333333</v>
+        <v>1170</v>
       </c>
       <c r="W34" t="n">
         <v>1170</v>
@@ -4135,26 +4155,24 @@
         <v>1170</v>
       </c>
       <c r="Y34" t="n">
-        <v>1170</v>
+        <v>1166.16666666667</v>
       </c>
       <c r="Z34" t="n">
-        <v>1166.16666666667</v>
+        <v>1166</v>
       </c>
       <c r="AA34" t="n">
         <v>1166</v>
       </c>
       <c r="AB34" t="n">
-        <v>1166</v>
+        <v>1167.33333333333</v>
       </c>
       <c r="AC34" t="n">
-        <v>1167.33333333333</v>
+        <v>1182</v>
       </c>
       <c r="AD34" t="n">
-        <v>1182</v>
-      </c>
-      <c r="AE34" t="n">
         <v>1184</v>
       </c>
+      <c r="AE34" t="s"/>
       <c r="AF34" t="s"/>
     </row>
     <row r="35" spans="1:32">
@@ -4461,8 +4479,12 @@
       <c r="E38" t="s">
         <v>34</v>
       </c>
-      <c r="F38" t="s"/>
-      <c r="G38" t="s"/>
+      <c r="F38" t="n">
+        <v>10.8416833333333</v>
+      </c>
+      <c r="G38" t="n">
+        <v>10.8416833333333</v>
+      </c>
       <c r="H38" t="n">
         <v>10.8416833333333</v>
       </c>
@@ -5549,7 +5571,9 @@
       <c r="Q49" t="n">
         <v>26.303</v>
       </c>
-      <c r="R49" t="s"/>
+      <c r="R49" t="n">
+        <v>26.42</v>
+      </c>
       <c r="S49" t="n">
         <v>26.5528333333333</v>
       </c>
@@ -6759,32 +6783,82 @@
       <c r="E62" t="s">
         <v>34</v>
       </c>
-      <c r="F62" t="s"/>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s"/>
+      <c r="F62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="H62" t="n">
+        <v>0.00066</v>
+      </c>
       <c r="I62" t="s"/>
-      <c r="J62" t="s"/>
-      <c r="K62" t="s"/>
-      <c r="L62" t="s"/>
-      <c r="M62" t="s"/>
-      <c r="N62" t="s"/>
-      <c r="O62" t="s"/>
-      <c r="P62" t="s"/>
-      <c r="Q62" t="s"/>
-      <c r="R62" t="s"/>
-      <c r="S62" t="s"/>
-      <c r="T62" t="s"/>
-      <c r="U62" t="s"/>
-      <c r="V62" t="s"/>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
-      <c r="Y62" t="s"/>
-      <c r="Z62" t="s"/>
-      <c r="AA62" t="s"/>
-      <c r="AB62" t="s"/>
-      <c r="AC62" t="s"/>
-      <c r="AD62" t="s"/>
-      <c r="AE62" t="s"/>
+      <c r="J62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="O62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="P62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="R62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="S62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="T62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="U62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="W62" t="n">
+        <v>0.0007099999999999999</v>
+      </c>
+      <c r="X62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>0.00062</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>0.00061</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>0.00066</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>0.0008300000000000001</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>0.00143</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>0.00166</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>0.00173</v>
+      </c>
       <c r="AF62" t="s"/>
     </row>
     <row r="63" spans="1:32">
@@ -6803,25 +6877,63 @@
       <c r="E63" t="s">
         <v>34</v>
       </c>
-      <c r="F63" t="s"/>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s"/>
-      <c r="J63" t="s"/>
-      <c r="K63" t="s"/>
-      <c r="L63" t="s"/>
-      <c r="M63" t="s"/>
-      <c r="N63" t="s"/>
-      <c r="O63" t="s"/>
-      <c r="P63" t="s"/>
-      <c r="Q63" t="s"/>
-      <c r="R63" t="s"/>
-      <c r="S63" t="s"/>
-      <c r="T63" t="s"/>
-      <c r="U63" t="s"/>
-      <c r="V63" t="s"/>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="F63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="H63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="J63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="L63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="O63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="T63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="W63" t="n">
+        <v>2.98895</v>
+      </c>
+      <c r="X63" t="n">
+        <v>2.98895</v>
+      </c>
       <c r="Y63" t="n">
         <v>2.98895</v>
       </c>
@@ -7629,7 +7741,9 @@
       <c r="E72" t="s">
         <v>34</v>
       </c>
-      <c r="F72" t="s"/>
+      <c r="F72" t="n">
+        <v>0.045325</v>
+      </c>
       <c r="G72" t="n">
         <v>0.045325</v>
       </c>
@@ -7966,15 +8080,33 @@
       <c r="V75" t="n">
         <v>6723052073.3381</v>
       </c>
-      <c r="W75" t="s"/>
-      <c r="X75" t="s"/>
-      <c r="Y75" t="s"/>
-      <c r="Z75" t="s"/>
-      <c r="AA75" t="s"/>
-      <c r="AB75" t="s"/>
-      <c r="AC75" t="s"/>
-      <c r="AD75" t="s"/>
-      <c r="AE75" t="s"/>
+      <c r="W75" t="n">
+        <v>29418000</v>
+      </c>
+      <c r="X75" t="n">
+        <v>36190000</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>36190000</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>36190000</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>36190000</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>36190000</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>36190000</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>36190000</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>36190000</v>
+      </c>
       <c r="AF75" t="s"/>
     </row>
   </sheetData>
